--- a/Results/lica_placebo_INTERNAL_VALIDATION_SUMMARY.xlsx
+++ b/Results/lica_placebo_INTERNAL_VALIDATION_SUMMARY.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Age, Sex_Male, Diagnostic_Delay, Onset_Limb, Vital_capacity</t>
+          <t>Age, Onset_Limb, Sex_Male, Age_onset</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>203.859</t>
+          <t>470.872</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -509,7 +509,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.831</t>
+          <t>0.629</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -525,12 +525,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.782</t>
+          <t>0.581</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.719, 0.826]</t>
+          <t>[0.552, 0.633]</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>0.919</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -561,12 +561,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.747</t>
+          <t>0.585</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0.360, 1.296]</t>
+          <t>[0.276, 1.144]</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.246</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -597,12 +597,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.163</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[-0.722, 0.776]</t>
+          <t>[-0.158, 0.612]</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>

--- a/Results/lica_placebo_INTERNAL_VALIDATION_SUMMARY.xlsx
+++ b/Results/lica_placebo_INTERNAL_VALIDATION_SUMMARY.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Age, Onset_Limb, Sex_Male, Age_onset</t>
+          <t>Age, Onset_Limb, Sex_Male, Diagnostic_Delay, Age_sq</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>470.872</t>
+          <t>902.812</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -509,7 +509,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.629</t>
+          <t>0.695</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -525,12 +525,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.581</t>
+          <t>0.674</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.552, 0.633]</t>
+          <t>[0.318, 0.692]</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.919</t>
+          <t>0.986</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -561,12 +561,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.585</t>
+          <t>0.825</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0.276, 1.144]</t>
+          <t>[-0.964, 1.038]</t>
         </is>
       </c>
     </row>
@@ -576,12 +576,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CITL at 30 months (apparent, best model)</t>
+          <t>CITL at 20 months (apparent, best model)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.246</t>
+          <t>-1.225</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -592,17 +592,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CITL at 30 months (optimism-corrected, strategy)</t>
+          <t>CITL at 20 months (optimism-corrected, strategy)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.163</t>
+          <t>-1.270</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[-0.158, 0.612]</t>
+          <t>[-1.593, -0.989]</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
